--- a/results/Homeopathy_excluded/mod2.corrupt_salience.eff.CAM.contrast.xlsx
+++ b/results/Homeopathy_excluded/mod2.corrupt_salience.eff.CAM.contrast.xlsx
@@ -416,25 +416,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.334484008570923</v>
+        <v>-0.334482821270395</v>
       </c>
       <c r="C2" t="n">
-        <v>0.156947137000687</v>
+        <v>0.156945840805541</v>
       </c>
       <c r="D2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.642094744568944</v>
+        <v>-0.642091016772612</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0268732725729026</v>
+        <v>-0.0268746257681791</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.13118897842309</v>
+        <v>-2.13119901460037</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0330735766409201</v>
+        <v>0.033072750168709</v>
       </c>
     </row>
     <row r="3">
@@ -442,25 +442,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0138541905592056</v>
+        <v>0.0138529811454946</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0583226423933798</v>
+        <v>0.0583223995769673</v>
       </c>
       <c r="D3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.100456088015028</v>
+        <v>-0.100456821517315</v>
       </c>
       <c r="F3" t="n">
-        <v>0.128164469133439</v>
+        <v>0.128162783808304</v>
       </c>
       <c r="G3" t="n">
-        <v>0.237543945038715</v>
+        <v>0.237524197323414</v>
       </c>
       <c r="H3" t="n">
-        <v>0.812234831384895</v>
+        <v>0.812250149486394</v>
       </c>
     </row>
     <row r="4">
@@ -468,25 +468,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0633578664979992</v>
+        <v>0.0633570174051527</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0394424175044492</v>
+        <v>0.0394423506524371</v>
       </c>
       <c r="D4" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.0139478512739135</v>
+        <v>-0.0139485693392239</v>
       </c>
       <c r="F4" t="n">
-        <v>0.140663584269912</v>
+        <v>0.140662604149529</v>
       </c>
       <c r="G4" t="n">
-        <v>1.60633831561801</v>
+        <v>1.60631951080831</v>
       </c>
       <c r="H4" t="n">
-        <v>0.108199596041171</v>
+        <v>0.108203725618378</v>
       </c>
     </row>
     <row r="5">
@@ -494,25 +494,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>0.348338199130129</v>
+        <v>0.34833580241589</v>
       </c>
       <c r="C5" t="n">
-        <v>0.159686865516462</v>
+        <v>0.159685620085943</v>
       </c>
       <c r="D5" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0353576939137731</v>
+        <v>0.0353577381984957</v>
       </c>
       <c r="F5" t="n">
-        <v>0.661318704346485</v>
+        <v>0.661313866633284</v>
       </c>
       <c r="G5" t="n">
-        <v>2.1813829083784</v>
+        <v>2.18138491260775</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0291551067305318</v>
+        <v>0.0291549586130625</v>
       </c>
     </row>
     <row r="6">
@@ -520,25 +520,25 @@
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>0.397841875068922</v>
+        <v>0.397839838675548</v>
       </c>
       <c r="C6" t="n">
-        <v>0.154092604952745</v>
+        <v>0.154091351191706</v>
       </c>
       <c r="D6" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0958259190775834</v>
+        <v>0.0958263400106905</v>
       </c>
       <c r="F6" t="n">
-        <v>0.699857831060261</v>
+        <v>0.699853337340406</v>
       </c>
       <c r="G6" t="n">
-        <v>2.58183626132433</v>
+        <v>2.58184405288647</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00982761995758527</v>
+        <v>0.00982739809548924</v>
       </c>
     </row>
     <row r="7">
@@ -546,25 +546,25 @@
         <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0495036759387935</v>
+        <v>0.0495040362596581</v>
       </c>
       <c r="C7" t="n">
-        <v>0.046900029364516</v>
+        <v>0.046899805289763</v>
       </c>
       <c r="D7" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.0424186924895287</v>
+        <v>-0.0424178929902184</v>
       </c>
       <c r="F7" t="n">
-        <v>0.141426044367116</v>
+        <v>0.141425965509535</v>
       </c>
       <c r="G7" t="n">
-        <v>1.05551481757168</v>
+        <v>1.05552754331932</v>
       </c>
       <c r="H7" t="n">
-        <v>0.291189936288662</v>
+        <v>0.29118411935372</v>
       </c>
     </row>
   </sheetData>
